--- a/report/summary_EURJPY_M30_2020-2023_0.xlsx
+++ b/report/summary_EURJPY_M30_2020-2023_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,39 +486,39 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <v>0.25</v>
+      </c>
+      <c r="J2">
         <v>0.3</v>
       </c>
-      <c r="I2">
-        <v>0.05</v>
-      </c>
-      <c r="J2">
-        <v>0.4</v>
-      </c>
       <c r="K2">
-        <v>223.1519999999996</v>
+        <v>332.4509999999995</v>
       </c>
       <c r="L2">
-        <v>7662</v>
+        <v>10124</v>
       </c>
       <c r="M2">
         <v>-3.578000000000003</v>
       </c>
       <c r="N2">
-        <v>219.5739999999996</v>
+        <v>328.8729999999995</v>
       </c>
       <c r="O2">
-        <v>0.3619159488384234</v>
+        <v>0.3818648755432635</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -533,39 +533,39 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I3">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="K3">
-        <v>107.1390000000001</v>
+        <v>271.7340000000012</v>
       </c>
       <c r="L3">
-        <v>4091</v>
+        <v>7631</v>
       </c>
       <c r="M3">
-        <v>-3.841000000000008</v>
+        <v>-3.727000000000004</v>
       </c>
       <c r="N3">
-        <v>103.2980000000001</v>
+        <v>268.0070000000012</v>
       </c>
       <c r="O3">
-        <v>0.4192129063798583</v>
+        <v>0.3915607390905517</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,39 +580,39 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>1.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I4">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="K4">
-        <v>102.9650000000003</v>
+        <v>267.4240000000005</v>
       </c>
       <c r="L4">
-        <v>3715</v>
+        <v>8455</v>
       </c>
       <c r="M4">
-        <v>-2.222000000000008</v>
+        <v>-3.578000000000003</v>
       </c>
       <c r="N4">
-        <v>100.7430000000003</v>
+        <v>263.8460000000006</v>
       </c>
       <c r="O4">
-        <v>0.4261103633916555</v>
+        <v>0.3891188645771733</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -630,36 +630,36 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
+        <v>0.4</v>
+      </c>
+      <c r="J5">
         <v>0.25</v>
       </c>
-      <c r="J5">
-        <v>0.45</v>
-      </c>
       <c r="K5">
-        <v>94.67699999999975</v>
+        <v>266.8230000000001</v>
       </c>
       <c r="L5">
-        <v>3053</v>
+        <v>11291</v>
       </c>
       <c r="M5">
-        <v>-2.964000000000027</v>
+        <v>-3.578000000000003</v>
       </c>
       <c r="N5">
-        <v>91.71299999999972</v>
+        <v>263.2450000000001</v>
       </c>
       <c r="O5">
-        <v>0.3783164100884376</v>
+        <v>0.4399964573554158</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -674,39 +674,39 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
         <v>0.4</v>
       </c>
-      <c r="I6">
-        <v>0.45</v>
-      </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
-        <v>91.48599999999982</v>
+        <v>225.1160000000004</v>
       </c>
       <c r="L6">
-        <v>2883</v>
+        <v>14841</v>
       </c>
       <c r="M6">
-        <v>-2.593000000000018</v>
+        <v>-3.951000000000022</v>
       </c>
       <c r="N6">
-        <v>88.8929999999998</v>
+        <v>221.1650000000004</v>
       </c>
       <c r="O6">
-        <v>0.3912591050988554</v>
+        <v>0.4784044201873189</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -721,39 +721,39 @@
         <v>2023</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>0.9000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J7">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="K7">
-        <v>66.60499999999936</v>
+        <v>223.1519999999996</v>
       </c>
       <c r="L7">
-        <v>6270</v>
+        <v>7662</v>
       </c>
       <c r="M7">
-        <v>-2.673000000000002</v>
+        <v>-3.578000000000003</v>
       </c>
       <c r="N7">
-        <v>63.93199999999936</v>
+        <v>219.5739999999996</v>
       </c>
       <c r="O7">
-        <v>0.490749601275917</v>
+        <v>0.3619159488384234</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -768,39 +768,39 @@
         <v>2023</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H8">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I8">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="J8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K8">
-        <v>64.40499999999922</v>
+        <v>216.3609999999995</v>
       </c>
       <c r="L8">
-        <v>2347</v>
+        <v>8982</v>
       </c>
       <c r="M8">
-        <v>-2.593000000000018</v>
+        <v>-3.578000000000003</v>
       </c>
       <c r="N8">
-        <v>61.8119999999992</v>
+        <v>212.7829999999995</v>
       </c>
       <c r="O8">
-        <v>0.4154239454622923</v>
+        <v>0.3622801157871298</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -815,39 +815,39 @@
         <v>2023</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I9">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="J9">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="K9">
-        <v>55.84399999999995</v>
+        <v>206.9120000000004</v>
       </c>
       <c r="L9">
-        <v>1270</v>
+        <v>11206</v>
       </c>
       <c r="M9">
-        <v>-1.555000000000007</v>
+        <v>-2.658000000000015</v>
       </c>
       <c r="N9">
-        <v>54.28899999999994</v>
+        <v>204.2540000000004</v>
       </c>
       <c r="O9">
-        <v>0.3763779527559055</v>
+        <v>0.4900053542744958</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -862,39 +862,39 @@
         <v>2023</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K10">
-        <v>54.55699999999952</v>
+        <v>191.4219999999985</v>
       </c>
       <c r="L10">
-        <v>1130</v>
+        <v>7221</v>
       </c>
       <c r="M10">
-        <v>-1.615000000000009</v>
+        <v>-3.727000000000004</v>
       </c>
       <c r="N10">
-        <v>52.94199999999951</v>
+        <v>187.6949999999985</v>
       </c>
       <c r="O10">
-        <v>0.363716814159292</v>
+        <v>0.3517518349259106</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -909,39 +909,39 @@
         <v>2023</v>
       </c>
       <c r="F11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="I11">
         <v>0.1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K11">
-        <v>56.32900000000018</v>
+        <v>188.2019999999989</v>
       </c>
       <c r="L11">
-        <v>6864</v>
+        <v>8053</v>
       </c>
       <c r="M11">
-        <v>-3.727000000000004</v>
+        <v>-3.578000000000003</v>
       </c>
       <c r="N11">
-        <v>52.60200000000017</v>
+        <v>184.6239999999989</v>
       </c>
       <c r="O11">
-        <v>0.3937937062937063</v>
+        <v>0.3665714640506644</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -956,39 +956,39 @@
         <v>2023</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
         <v>0.1</v>
       </c>
       <c r="J12">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="K12">
-        <v>43.04599999999991</v>
+        <v>179.3240000000002</v>
       </c>
       <c r="L12">
-        <v>1106</v>
+        <v>10067</v>
       </c>
       <c r="M12">
-        <v>-3.322000000000003</v>
+        <v>-3.578000000000003</v>
       </c>
       <c r="N12">
-        <v>39.7239999999999</v>
+        <v>175.7460000000002</v>
       </c>
       <c r="O12">
-        <v>0.3987341772151899</v>
+        <v>0.4594218734478991</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1003,39 +1003,39 @@
         <v>2023</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J13">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
-        <v>35.04599999999996</v>
+        <v>168.7130000000006</v>
       </c>
       <c r="L13">
-        <v>1475</v>
+        <v>7060</v>
       </c>
       <c r="M13">
-        <v>-1.555000000000007</v>
+        <v>-3.578000000000003</v>
       </c>
       <c r="N13">
-        <v>33.49099999999996</v>
+        <v>165.1350000000006</v>
       </c>
       <c r="O13">
-        <v>0.4996610169491525</v>
+        <v>0.4118980169971672</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1050,39 +1050,39 @@
         <v>2023</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H14">
+        <v>0.45</v>
+      </c>
+      <c r="I14">
+        <v>0.3</v>
+      </c>
+      <c r="J14">
         <v>0.4</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.35</v>
-      </c>
       <c r="K14">
-        <v>33.11100000000037</v>
+        <v>158.2299999999992</v>
       </c>
       <c r="L14">
-        <v>2291</v>
+        <v>9373</v>
       </c>
       <c r="M14">
-        <v>-2.964000000000027</v>
+        <v>-3.951000000000022</v>
       </c>
       <c r="N14">
-        <v>30.14700000000035</v>
+        <v>154.2789999999991</v>
       </c>
       <c r="O14">
-        <v>0.3749454386730685</v>
+        <v>0.3695721753974181</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1097,39 +1097,39 @@
         <v>2023</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H15">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I15">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>26.98300000000037</v>
+        <v>148.8110000000004</v>
       </c>
       <c r="L15">
-        <v>1545</v>
+        <v>13169</v>
       </c>
       <c r="M15">
-        <v>-0.8790000000000049</v>
+        <v>-2.555000000000007</v>
       </c>
       <c r="N15">
-        <v>26.10400000000037</v>
+        <v>146.2560000000004</v>
       </c>
       <c r="O15">
-        <v>0.5087378640776699</v>
+        <v>0.4353405725567621</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1144,39 +1144,39 @@
         <v>2023</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>3.600000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H16">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I16">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J16">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="K16">
-        <v>23.00500000000004</v>
+        <v>130.8100000000004</v>
       </c>
       <c r="L16">
-        <v>969</v>
+        <v>3426</v>
       </c>
       <c r="M16">
-        <v>-0.8790000000000049</v>
+        <v>-3.841000000000008</v>
       </c>
       <c r="N16">
-        <v>22.12600000000003</v>
+        <v>126.9690000000004</v>
       </c>
       <c r="O16">
-        <v>0.4385964912280702</v>
+        <v>0.3695271453590193</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1191,39 +1191,39 @@
         <v>2023</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="I17">
         <v>0.45</v>
       </c>
-      <c r="I17">
-        <v>0.35</v>
-      </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K17">
-        <v>22.38200000000133</v>
+        <v>107.1390000000001</v>
       </c>
       <c r="L17">
-        <v>2673</v>
+        <v>4091</v>
       </c>
       <c r="M17">
-        <v>-2.964000000000027</v>
+        <v>-3.841000000000008</v>
       </c>
       <c r="N17">
-        <v>19.4180000000013</v>
+        <v>103.2980000000001</v>
       </c>
       <c r="O17">
-        <v>0.3737373737373738</v>
+        <v>0.4192129063798583</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1241,31 +1241,3932 @@
         <v>50</v>
       </c>
       <c r="G18">
+        <v>1.4</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>0.05</v>
+      </c>
+      <c r="J18">
+        <v>0.4</v>
+      </c>
+      <c r="K18">
+        <v>102.9650000000003</v>
+      </c>
+      <c r="L18">
+        <v>3715</v>
+      </c>
+      <c r="M18">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N18">
+        <v>100.7430000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.4261103633916555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>2023</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>1.3</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>0.4</v>
+      </c>
+      <c r="J19">
+        <v>0.35</v>
+      </c>
+      <c r="K19">
+        <v>101.7190000000007</v>
+      </c>
+      <c r="L19">
+        <v>4091</v>
+      </c>
+      <c r="M19">
+        <v>-3.841000000000008</v>
+      </c>
+      <c r="N19">
+        <v>97.87800000000074</v>
+      </c>
+      <c r="O19">
+        <v>0.4302126619408458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>1.4</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>0.15</v>
+      </c>
+      <c r="J20">
+        <v>0.25</v>
+      </c>
+      <c r="K20">
+        <v>101.1810000000007</v>
+      </c>
+      <c r="L20">
+        <v>3813</v>
+      </c>
+      <c r="M20">
+        <v>-3.841000000000008</v>
+      </c>
+      <c r="N20">
+        <v>97.34000000000069</v>
+      </c>
+      <c r="O20">
+        <v>0.4526619459742984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>2023</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>1.6</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0.25</v>
+      </c>
+      <c r="J21">
+        <v>0.45</v>
+      </c>
+      <c r="K21">
+        <v>94.67699999999975</v>
+      </c>
+      <c r="L21">
+        <v>3053</v>
+      </c>
+      <c r="M21">
+        <v>-2.964000000000027</v>
+      </c>
+      <c r="N21">
+        <v>91.71299999999972</v>
+      </c>
+      <c r="O21">
+        <v>0.3783164100884376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="E22">
+        <v>2023</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>1.7</v>
+      </c>
+      <c r="H22">
+        <v>0.4</v>
+      </c>
+      <c r="I22">
+        <v>0.45</v>
+      </c>
+      <c r="J22">
+        <v>0.3</v>
+      </c>
+      <c r="K22">
+        <v>91.48599999999982</v>
+      </c>
+      <c r="L22">
+        <v>2883</v>
+      </c>
+      <c r="M22">
+        <v>-2.593000000000018</v>
+      </c>
+      <c r="N22">
+        <v>88.8929999999998</v>
+      </c>
+      <c r="O22">
+        <v>0.3912591050988554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>0.3</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+      <c r="I23">
+        <v>0.15</v>
+      </c>
+      <c r="J23">
+        <v>0.05</v>
+      </c>
+      <c r="K23">
+        <v>87.60099999999876</v>
+      </c>
+      <c r="L23">
+        <v>12873</v>
+      </c>
+      <c r="M23">
+        <v>-2.555000000000007</v>
+      </c>
+      <c r="N23">
+        <v>85.04599999999876</v>
+      </c>
+      <c r="O23">
+        <v>0.4705973743494135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+      <c r="E24">
+        <v>2023</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>2.2</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>0.35</v>
+      </c>
+      <c r="J24">
+        <v>0.4</v>
+      </c>
+      <c r="K24">
+        <v>80.1119999999996</v>
+      </c>
+      <c r="L24">
+        <v>2110</v>
+      </c>
+      <c r="M24">
+        <v>-2.677999999999997</v>
+      </c>
+      <c r="N24">
+        <v>77.4339999999996</v>
+      </c>
+      <c r="O24">
+        <v>0.3625592417061612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25">
+        <v>2023</v>
+      </c>
+      <c r="F25">
+        <v>90</v>
+      </c>
+      <c r="G25">
+        <v>1.7</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>0.4</v>
+      </c>
+      <c r="J25">
+        <v>0.25</v>
+      </c>
+      <c r="K25">
+        <v>76.08000000000023</v>
+      </c>
+      <c r="L25">
+        <v>2909</v>
+      </c>
+      <c r="M25">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N25">
+        <v>73.85800000000022</v>
+      </c>
+      <c r="O25">
+        <v>0.4578893090409075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+      <c r="E26">
+        <v>2023</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+      <c r="G26">
+        <v>2.2</v>
+      </c>
+      <c r="H26">
+        <v>0.25</v>
+      </c>
+      <c r="I26">
+        <v>0.05</v>
+      </c>
+      <c r="J26">
+        <v>0.35</v>
+      </c>
+      <c r="K26">
+        <v>76.0070000000001</v>
+      </c>
+      <c r="L26">
+        <v>2067</v>
+      </c>
+      <c r="M26">
+        <v>-2.662000000000006</v>
+      </c>
+      <c r="N26">
+        <v>73.3450000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.3671988388969521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>1.9</v>
+      </c>
+      <c r="H27">
+        <v>0.45</v>
+      </c>
+      <c r="I27">
+        <v>0.05</v>
+      </c>
+      <c r="J27">
+        <v>0.45</v>
+      </c>
+      <c r="K27">
+        <v>73.04499999999983</v>
+      </c>
+      <c r="L27">
+        <v>2462</v>
+      </c>
+      <c r="M27">
+        <v>-2.964000000000027</v>
+      </c>
+      <c r="N27">
+        <v>70.0809999999998</v>
+      </c>
+      <c r="O27">
+        <v>0.3728675873273761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.05</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.45</v>
+      </c>
+      <c r="K28">
+        <v>73.61099999999956</v>
+      </c>
+      <c r="L28">
+        <v>6095</v>
+      </c>
+      <c r="M28">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="N28">
+        <v>69.88399999999956</v>
+      </c>
+      <c r="O28">
+        <v>0.5204265791632485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29">
+        <v>2023</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.05</v>
+      </c>
+      <c r="K29">
+        <v>66.60499999999936</v>
+      </c>
+      <c r="L29">
+        <v>6270</v>
+      </c>
+      <c r="M29">
+        <v>-2.673000000000002</v>
+      </c>
+      <c r="N29">
+        <v>63.93199999999936</v>
+      </c>
+      <c r="O29">
+        <v>0.490749601275917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+      <c r="E30">
+        <v>2023</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.35</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>0.45</v>
+      </c>
+      <c r="K30">
+        <v>66.38899999999941</v>
+      </c>
+      <c r="L30">
+        <v>1617</v>
+      </c>
+      <c r="M30">
+        <v>-2.677999999999997</v>
+      </c>
+      <c r="N30">
+        <v>63.71099999999942</v>
+      </c>
+      <c r="O30">
+        <v>0.3562152133580705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+      <c r="E31">
+        <v>2023</v>
+      </c>
+      <c r="F31">
+        <v>40</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0.15</v>
+      </c>
+      <c r="I31">
+        <v>0.35</v>
+      </c>
+      <c r="J31">
+        <v>0.25</v>
+      </c>
+      <c r="K31">
+        <v>64.40499999999922</v>
+      </c>
+      <c r="L31">
+        <v>2347</v>
+      </c>
+      <c r="M31">
+        <v>-2.593000000000018</v>
+      </c>
+      <c r="N31">
+        <v>61.8119999999992</v>
+      </c>
+      <c r="O31">
+        <v>0.4154239454622923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32">
+        <v>2023</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>1.4</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>0.25</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>64.9669999999998</v>
+      </c>
+      <c r="L32">
+        <v>3691</v>
+      </c>
+      <c r="M32">
+        <v>-3.934000000000026</v>
+      </c>
+      <c r="N32">
+        <v>61.03299999999977</v>
+      </c>
+      <c r="O32">
+        <v>0.4026009211595774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33">
+        <v>2023</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>2.7</v>
+      </c>
+      <c r="H33">
+        <v>0.45</v>
+      </c>
+      <c r="I33">
+        <v>0.4</v>
+      </c>
+      <c r="J33">
+        <v>0.45</v>
+      </c>
+      <c r="K33">
+        <v>61.80299999999939</v>
+      </c>
+      <c r="L33">
+        <v>1563</v>
+      </c>
+      <c r="M33">
+        <v>-3.179000000000002</v>
+      </c>
+      <c r="N33">
+        <v>58.62399999999938</v>
+      </c>
+      <c r="O33">
+        <v>0.3787587971849009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34">
+        <v>2023</v>
+      </c>
+      <c r="F34">
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>1.2</v>
+      </c>
+      <c r="H34">
+        <v>0.05</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>59.43599999999942</v>
+      </c>
+      <c r="L34">
+        <v>4469</v>
+      </c>
+      <c r="M34">
+        <v>-2.439000000000021</v>
+      </c>
+      <c r="N34">
+        <v>56.9969999999994</v>
+      </c>
+      <c r="O34">
+        <v>0.5227120161109868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="G35">
+        <v>2.3</v>
+      </c>
+      <c r="H35">
+        <v>0.35</v>
+      </c>
+      <c r="I35">
+        <v>0.15</v>
+      </c>
+      <c r="J35">
+        <v>0.35</v>
+      </c>
+      <c r="K35">
+        <v>58.85299999999968</v>
+      </c>
+      <c r="L35">
+        <v>1966</v>
+      </c>
+      <c r="M35">
+        <v>-2.662000000000006</v>
+      </c>
+      <c r="N35">
+        <v>56.19099999999968</v>
+      </c>
+      <c r="O35">
+        <v>0.3692777212614445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+      <c r="E36">
+        <v>2023</v>
+      </c>
+      <c r="F36">
+        <v>80</v>
+      </c>
+      <c r="G36">
+        <v>1.4</v>
+      </c>
+      <c r="H36">
+        <v>0.45</v>
+      </c>
+      <c r="I36">
+        <v>0.45</v>
+      </c>
+      <c r="J36">
+        <v>0.35</v>
+      </c>
+      <c r="K36">
+        <v>59.40300000000023</v>
+      </c>
+      <c r="L36">
+        <v>3692</v>
+      </c>
+      <c r="M36">
+        <v>-3.934000000000026</v>
+      </c>
+      <c r="N36">
+        <v>55.46900000000021</v>
+      </c>
+      <c r="O36">
+        <v>0.3775731310942578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37">
+        <v>2023</v>
+      </c>
+      <c r="F37">
+        <v>90</v>
+      </c>
+      <c r="G37">
+        <v>1.9</v>
+      </c>
+      <c r="H37">
+        <v>0.15</v>
+      </c>
+      <c r="I37">
+        <v>0.4</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>57.36900000000045</v>
+      </c>
+      <c r="L37">
+        <v>2533</v>
+      </c>
+      <c r="M37">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N37">
+        <v>55.14700000000045</v>
+      </c>
+      <c r="O37">
+        <v>0.4176865377023293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>2020</v>
+      </c>
+      <c r="E38">
+        <v>2023</v>
+      </c>
+      <c r="F38">
+        <v>90</v>
+      </c>
+      <c r="G38">
+        <v>2.5</v>
+      </c>
+      <c r="H38">
+        <v>0.1</v>
+      </c>
+      <c r="I38">
+        <v>0.15</v>
+      </c>
+      <c r="J38">
+        <v>0.45</v>
+      </c>
+      <c r="K38">
+        <v>56.01899999999959</v>
+      </c>
+      <c r="L38">
+        <v>1741</v>
+      </c>
+      <c r="M38">
+        <v>-1.304000000000002</v>
+      </c>
+      <c r="N38">
+        <v>54.71499999999959</v>
+      </c>
+      <c r="O38">
+        <v>0.4279149913842619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2020</v>
+      </c>
+      <c r="E39">
+        <v>2023</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>0.25</v>
+      </c>
+      <c r="J39">
+        <v>0.35</v>
+      </c>
+      <c r="K39">
+        <v>55.84399999999995</v>
+      </c>
+      <c r="L39">
+        <v>1270</v>
+      </c>
+      <c r="M39">
+        <v>-1.555000000000007</v>
+      </c>
+      <c r="N39">
+        <v>54.28899999999994</v>
+      </c>
+      <c r="O39">
+        <v>0.3763779527559055</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+      <c r="E40">
+        <v>2023</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>3.3</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>0.4</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>54.55699999999952</v>
+      </c>
+      <c r="L40">
+        <v>1130</v>
+      </c>
+      <c r="M40">
+        <v>-1.615000000000009</v>
+      </c>
+      <c r="N40">
+        <v>52.94199999999951</v>
+      </c>
+      <c r="O40">
+        <v>0.363716814159292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>2020</v>
+      </c>
+      <c r="E41">
+        <v>2023</v>
+      </c>
+      <c r="F41">
+        <v>80</v>
+      </c>
+      <c r="G41">
+        <v>0.8</v>
+      </c>
+      <c r="H41">
+        <v>0.25</v>
+      </c>
+      <c r="I41">
+        <v>0.1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>56.32900000000018</v>
+      </c>
+      <c r="L41">
+        <v>6864</v>
+      </c>
+      <c r="M41">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="N41">
+        <v>52.60200000000017</v>
+      </c>
+      <c r="O41">
+        <v>0.3937937062937063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+      <c r="E42">
+        <v>2023</v>
+      </c>
+      <c r="F42">
+        <v>90</v>
+      </c>
+      <c r="G42">
+        <v>1.2</v>
+      </c>
+      <c r="H42">
+        <v>0.3</v>
+      </c>
+      <c r="I42">
+        <v>0.25</v>
+      </c>
+      <c r="J42">
+        <v>0.05</v>
+      </c>
+      <c r="K42">
+        <v>54.62599999999961</v>
+      </c>
+      <c r="L42">
+        <v>4483</v>
+      </c>
+      <c r="M42">
+        <v>-2.382000000000005</v>
+      </c>
+      <c r="N42">
+        <v>52.2439999999996</v>
+      </c>
+      <c r="O42">
+        <v>0.4697747044389917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43">
+        <v>2023</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>2.3</v>
+      </c>
+      <c r="H43">
+        <v>0.45</v>
+      </c>
+      <c r="I43">
+        <v>0.15</v>
+      </c>
+      <c r="J43">
+        <v>0.35</v>
+      </c>
+      <c r="K43">
+        <v>55.26999999999931</v>
+      </c>
+      <c r="L43">
+        <v>1903</v>
+      </c>
+      <c r="M43">
+        <v>-3.179000000000002</v>
+      </c>
+      <c r="N43">
+        <v>52.09099999999931</v>
+      </c>
+      <c r="O43">
+        <v>0.3841303205465055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44">
+        <v>90</v>
+      </c>
+      <c r="G44">
+        <v>3.5</v>
+      </c>
+      <c r="H44">
+        <v>0.4</v>
+      </c>
+      <c r="I44">
+        <v>0.3</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>55.27299999999967</v>
+      </c>
+      <c r="L44">
+        <v>1018</v>
+      </c>
+      <c r="M44">
+        <v>-3.322000000000003</v>
+      </c>
+      <c r="N44">
+        <v>51.95099999999967</v>
+      </c>
+      <c r="O44">
+        <v>0.3634577603143418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>2.4</v>
+      </c>
+      <c r="H45">
+        <v>0.4</v>
+      </c>
+      <c r="I45">
+        <v>0.2</v>
+      </c>
+      <c r="J45">
+        <v>0.3</v>
+      </c>
+      <c r="K45">
+        <v>54.46599999999954</v>
+      </c>
+      <c r="L45">
+        <v>1768</v>
+      </c>
+      <c r="M45">
+        <v>-2.682000000000016</v>
+      </c>
+      <c r="N45">
+        <v>51.78399999999952</v>
+      </c>
+      <c r="O45">
+        <v>0.3930995475113122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="E46">
+        <v>2023</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>3.4</v>
+      </c>
+      <c r="H46">
+        <v>0.45</v>
+      </c>
+      <c r="I46">
+        <v>0.2</v>
+      </c>
+      <c r="J46">
+        <v>0.45</v>
+      </c>
+      <c r="K46">
+        <v>53.14199999999938</v>
+      </c>
+      <c r="L46">
+        <v>1032</v>
+      </c>
+      <c r="M46">
+        <v>-3.322000000000003</v>
+      </c>
+      <c r="N46">
+        <v>49.81999999999938</v>
+      </c>
+      <c r="O46">
+        <v>0.3866279069767442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47">
+        <v>2023</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>1.3</v>
+      </c>
+      <c r="H47">
+        <v>0.5</v>
+      </c>
+      <c r="I47">
+        <v>0.3</v>
+      </c>
+      <c r="J47">
+        <v>0.25</v>
+      </c>
+      <c r="K47">
+        <v>52.96200000000003</v>
+      </c>
+      <c r="L47">
+        <v>4044</v>
+      </c>
+      <c r="M47">
+        <v>-3.841000000000008</v>
+      </c>
+      <c r="N47">
+        <v>49.12100000000002</v>
+      </c>
+      <c r="O47">
+        <v>0.3996043521266073</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>70</v>
+      </c>
+      <c r="G48">
+        <v>3.3</v>
+      </c>
+      <c r="H48">
+        <v>0.25</v>
+      </c>
+      <c r="I48">
+        <v>0.3</v>
+      </c>
+      <c r="J48">
+        <v>0.3</v>
+      </c>
+      <c r="K48">
+        <v>50.3559999999999</v>
+      </c>
+      <c r="L48">
+        <v>1100</v>
+      </c>
+      <c r="M48">
+        <v>-1.603999999999985</v>
+      </c>
+      <c r="N48">
+        <v>48.75199999999991</v>
+      </c>
+      <c r="O48">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49">
+        <v>70</v>
+      </c>
+      <c r="G49">
+        <v>2.9</v>
+      </c>
+      <c r="H49">
+        <v>0.15</v>
+      </c>
+      <c r="I49">
+        <v>0.15</v>
+      </c>
+      <c r="J49">
+        <v>0.25</v>
+      </c>
+      <c r="K49">
+        <v>45.63299999999967</v>
+      </c>
+      <c r="L49">
+        <v>1363</v>
+      </c>
+      <c r="M49">
+        <v>-1.555000000000007</v>
+      </c>
+      <c r="N49">
+        <v>44.07799999999966</v>
+      </c>
+      <c r="O49">
+        <v>0.4321349963316214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>2.7</v>
+      </c>
+      <c r="H50">
+        <v>0.05</v>
+      </c>
+      <c r="I50">
+        <v>0.25</v>
+      </c>
+      <c r="J50">
+        <v>0.35</v>
+      </c>
+      <c r="K50">
+        <v>43.8460000000001</v>
+      </c>
+      <c r="L50">
+        <v>1565</v>
+      </c>
+      <c r="M50">
+        <v>-1.555000000000007</v>
+      </c>
+      <c r="N50">
+        <v>42.2910000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.5041533546325878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+      <c r="F51">
+        <v>90</v>
+      </c>
+      <c r="G51">
+        <v>3.4</v>
+      </c>
+      <c r="H51">
+        <v>0.35</v>
+      </c>
+      <c r="I51">
+        <v>0.05</v>
+      </c>
+      <c r="J51">
+        <v>0.4</v>
+      </c>
+      <c r="K51">
+        <v>44.69699999999985</v>
+      </c>
+      <c r="L51">
+        <v>1056</v>
+      </c>
+      <c r="M51">
+        <v>-3.322000000000003</v>
+      </c>
+      <c r="N51">
+        <v>41.37499999999984</v>
+      </c>
+      <c r="O51">
+        <v>0.3882575757575757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="G52">
+        <v>2.4</v>
+      </c>
+      <c r="H52">
+        <v>0.05</v>
+      </c>
+      <c r="I52">
+        <v>0.25</v>
+      </c>
+      <c r="J52">
+        <v>0.35</v>
+      </c>
+      <c r="K52">
+        <v>41.54599999999985</v>
+      </c>
+      <c r="L52">
+        <v>1849</v>
+      </c>
+      <c r="M52">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N52">
+        <v>40.66699999999985</v>
+      </c>
+      <c r="O52">
+        <v>0.4986479177934018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>37</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53">
+        <v>2023</v>
+      </c>
+      <c r="F53">
+        <v>70</v>
+      </c>
+      <c r="G53">
+        <v>3.3</v>
+      </c>
+      <c r="H53">
+        <v>0.25</v>
+      </c>
+      <c r="I53">
+        <v>0.45</v>
+      </c>
+      <c r="J53">
+        <v>0.25</v>
+      </c>
+      <c r="K53">
+        <v>41.96999999999979</v>
+      </c>
+      <c r="L53">
+        <v>1100</v>
+      </c>
+      <c r="M53">
+        <v>-1.603999999999985</v>
+      </c>
+      <c r="N53">
+        <v>40.3659999999998</v>
+      </c>
+      <c r="O53">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>2020</v>
+      </c>
+      <c r="E54">
+        <v>2023</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>3.3</v>
+      </c>
+      <c r="H54">
+        <v>0.45</v>
+      </c>
+      <c r="I54">
+        <v>0.1</v>
+      </c>
+      <c r="J54">
+        <v>0.35</v>
+      </c>
+      <c r="K54">
+        <v>43.04599999999991</v>
+      </c>
+      <c r="L54">
+        <v>1106</v>
+      </c>
+      <c r="M54">
+        <v>-3.322000000000003</v>
+      </c>
+      <c r="N54">
+        <v>39.7239999999999</v>
+      </c>
+      <c r="O54">
+        <v>0.3987341772151899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>2020</v>
+      </c>
+      <c r="E55">
+        <v>2023</v>
+      </c>
+      <c r="F55">
+        <v>80</v>
+      </c>
+      <c r="G55">
+        <v>2.2</v>
+      </c>
+      <c r="H55">
+        <v>0.15</v>
+      </c>
+      <c r="I55">
+        <v>0.45</v>
+      </c>
+      <c r="J55">
+        <v>0.2</v>
+      </c>
+      <c r="K55">
+        <v>40.69899999999949</v>
+      </c>
+      <c r="L55">
+        <v>2075</v>
+      </c>
+      <c r="M55">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N55">
+        <v>38.47699999999948</v>
+      </c>
+      <c r="O55">
+        <v>0.432289156626506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>2.7</v>
+      </c>
+      <c r="H56">
+        <v>0.35</v>
+      </c>
+      <c r="I56">
+        <v>0.3</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>40.41600000000028</v>
+      </c>
+      <c r="L56">
+        <v>1564</v>
+      </c>
+      <c r="M56">
+        <v>-2.662000000000006</v>
+      </c>
+      <c r="N56">
+        <v>37.75400000000027</v>
+      </c>
+      <c r="O56">
+        <v>0.3631713554987212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57">
+        <v>2023</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>1.8</v>
+      </c>
+      <c r="H57">
+        <v>0.4</v>
+      </c>
+      <c r="I57">
+        <v>0.1</v>
+      </c>
+      <c r="J57">
+        <v>0.2</v>
+      </c>
+      <c r="K57">
+        <v>37.54000000000013</v>
+      </c>
+      <c r="L57">
+        <v>2711</v>
+      </c>
+      <c r="M57">
+        <v>-1.443000000000012</v>
+      </c>
+      <c r="N57">
+        <v>36.09700000000012</v>
+      </c>
+      <c r="O57">
+        <v>0.4094430099594246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>2020</v>
+      </c>
+      <c r="E58">
+        <v>2023</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>3.9</v>
+      </c>
+      <c r="H58">
+        <v>0.15</v>
+      </c>
+      <c r="I58">
+        <v>0.15</v>
+      </c>
+      <c r="J58">
+        <v>0.25</v>
+      </c>
+      <c r="K58">
+        <v>36.49499999999965</v>
+      </c>
+      <c r="L58">
+        <v>939</v>
+      </c>
+      <c r="M58">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N58">
+        <v>35.61599999999964</v>
+      </c>
+      <c r="O58">
+        <v>0.4195953141640043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>3.4</v>
+      </c>
+      <c r="H59">
+        <v>0.5</v>
+      </c>
+      <c r="I59">
+        <v>0.25</v>
+      </c>
+      <c r="J59">
+        <v>0.4</v>
+      </c>
+      <c r="K59">
+        <v>38.49299999999964</v>
+      </c>
+      <c r="L59">
+        <v>1098</v>
+      </c>
+      <c r="M59">
+        <v>-3.730000000000018</v>
+      </c>
+      <c r="N59">
+        <v>34.76299999999962</v>
+      </c>
+      <c r="O59">
+        <v>0.3970856102003643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>2020</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60">
+        <v>70</v>
+      </c>
+      <c r="G60">
+        <v>3.5</v>
+      </c>
+      <c r="H60">
+        <v>0.3</v>
+      </c>
+      <c r="I60">
+        <v>0.2</v>
+      </c>
+      <c r="J60">
+        <v>0.4</v>
+      </c>
+      <c r="K60">
+        <v>37.49199999999978</v>
+      </c>
+      <c r="L60">
+        <v>1018</v>
+      </c>
+      <c r="M60">
+        <v>-3.322000000000003</v>
+      </c>
+      <c r="N60">
+        <v>34.16999999999977</v>
+      </c>
+      <c r="O60">
+        <v>0.37524557956778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2020</v>
+      </c>
+      <c r="E61">
+        <v>2023</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61">
+        <v>2.3</v>
+      </c>
+      <c r="H61">
+        <v>0.5</v>
+      </c>
+      <c r="I61">
+        <v>0.3</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>37.07299999999931</v>
+      </c>
+      <c r="L61">
+        <v>1894</v>
+      </c>
+      <c r="M61">
+        <v>-2.997000000000014</v>
+      </c>
+      <c r="N61">
+        <v>34.0759999999993</v>
+      </c>
+      <c r="O61">
+        <v>0.3848996832101373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>2020</v>
+      </c>
+      <c r="E62">
+        <v>2023</v>
+      </c>
+      <c r="F62">
+        <v>70</v>
+      </c>
+      <c r="G62">
+        <v>3.4</v>
+      </c>
+      <c r="H62">
+        <v>0.15</v>
+      </c>
+      <c r="I62">
+        <v>0.25</v>
+      </c>
+      <c r="J62">
+        <v>0.25</v>
+      </c>
+      <c r="K62">
+        <v>35.6699999999998</v>
+      </c>
+      <c r="L62">
+        <v>1053</v>
+      </c>
+      <c r="M62">
+        <v>-1.603999999999985</v>
+      </c>
+      <c r="N62">
+        <v>34.06599999999982</v>
+      </c>
+      <c r="O62">
+        <v>0.4254510921177588</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>2020</v>
+      </c>
+      <c r="E63">
+        <v>2023</v>
+      </c>
+      <c r="F63">
+        <v>90</v>
+      </c>
+      <c r="G63">
+        <v>0.4</v>
+      </c>
+      <c r="H63">
+        <v>0.4</v>
+      </c>
+      <c r="I63">
+        <v>0.4</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>36.15299999999955</v>
+      </c>
+      <c r="L63">
+        <v>11211</v>
+      </c>
+      <c r="M63">
+        <v>-2.555000000000007</v>
+      </c>
+      <c r="N63">
+        <v>33.59799999999954</v>
+      </c>
+      <c r="O63">
+        <v>0.3766836143073767</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>2020</v>
+      </c>
+      <c r="E64">
+        <v>2023</v>
+      </c>
+      <c r="F64">
+        <v>80</v>
+      </c>
+      <c r="G64">
+        <v>2.3</v>
+      </c>
+      <c r="H64">
+        <v>0.05</v>
+      </c>
+      <c r="I64">
+        <v>0.1</v>
+      </c>
+      <c r="J64">
+        <v>0.25</v>
+      </c>
+      <c r="K64">
+        <v>34.40899999999952</v>
+      </c>
+      <c r="L64">
+        <v>1961</v>
+      </c>
+      <c r="M64">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N64">
+        <v>33.52999999999952</v>
+      </c>
+      <c r="O64">
+        <v>0.5053544110147884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>2020</v>
+      </c>
+      <c r="E65">
+        <v>2023</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>2.8</v>
+      </c>
+      <c r="H65">
+        <v>0.05</v>
+      </c>
+      <c r="I65">
+        <v>0.15</v>
+      </c>
+      <c r="J65">
+        <v>0.35</v>
+      </c>
+      <c r="K65">
+        <v>35.04599999999996</v>
+      </c>
+      <c r="L65">
+        <v>1475</v>
+      </c>
+      <c r="M65">
+        <v>-1.555000000000007</v>
+      </c>
+      <c r="N65">
+        <v>33.49099999999996</v>
+      </c>
+      <c r="O65">
+        <v>0.4996610169491525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>2020</v>
+      </c>
+      <c r="E66">
+        <v>2023</v>
+      </c>
+      <c r="F66">
+        <v>70</v>
+      </c>
+      <c r="G66">
+        <v>3.7</v>
+      </c>
+      <c r="H66">
+        <v>0.4</v>
+      </c>
+      <c r="I66">
+        <v>0.25</v>
+      </c>
+      <c r="J66">
+        <v>0.35</v>
+      </c>
+      <c r="K66">
+        <v>36.79000000000005</v>
+      </c>
+      <c r="L66">
+        <v>918</v>
+      </c>
+      <c r="M66">
+        <v>-3.730000000000018</v>
+      </c>
+      <c r="N66">
+        <v>33.06000000000003</v>
+      </c>
+      <c r="O66">
+        <v>0.3943355119825708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>2020</v>
+      </c>
+      <c r="E67">
+        <v>2023</v>
+      </c>
+      <c r="F67">
+        <v>70</v>
+      </c>
+      <c r="G67">
+        <v>3.2</v>
+      </c>
+      <c r="H67">
+        <v>0.1</v>
+      </c>
+      <c r="I67">
+        <v>0.2</v>
+      </c>
+      <c r="J67">
+        <v>0.25</v>
+      </c>
+      <c r="K67">
+        <v>32.33799999999972</v>
+      </c>
+      <c r="L67">
+        <v>1145</v>
+      </c>
+      <c r="M67">
+        <v>-1.555000000000007</v>
+      </c>
+      <c r="N67">
+        <v>30.78299999999972</v>
+      </c>
+      <c r="O67">
+        <v>0.451528384279476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>2020</v>
+      </c>
+      <c r="E68">
+        <v>2023</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>0.4</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.35</v>
+      </c>
+      <c r="K68">
+        <v>33.11100000000037</v>
+      </c>
+      <c r="L68">
+        <v>2291</v>
+      </c>
+      <c r="M68">
+        <v>-2.964000000000027</v>
+      </c>
+      <c r="N68">
+        <v>30.14700000000035</v>
+      </c>
+      <c r="O68">
+        <v>0.3749454386730685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>2020</v>
+      </c>
+      <c r="E69">
+        <v>2023</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <v>3.4</v>
+      </c>
+      <c r="H69">
+        <v>0.15</v>
+      </c>
+      <c r="I69">
+        <v>0.35</v>
+      </c>
+      <c r="J69">
+        <v>0.25</v>
+      </c>
+      <c r="K69">
+        <v>32.56099999999904</v>
+      </c>
+      <c r="L69">
+        <v>1099</v>
+      </c>
+      <c r="M69">
+        <v>-2.677999999999997</v>
+      </c>
+      <c r="N69">
+        <v>29.88299999999904</v>
+      </c>
+      <c r="O69">
+        <v>0.3994540491355778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>2020</v>
+      </c>
+      <c r="E70">
+        <v>2023</v>
+      </c>
+      <c r="F70">
+        <v>90</v>
+      </c>
+      <c r="G70">
+        <v>2.3</v>
+      </c>
+      <c r="H70">
+        <v>0.35</v>
+      </c>
+      <c r="I70">
+        <v>0.45</v>
+      </c>
+      <c r="J70">
+        <v>0.25</v>
+      </c>
+      <c r="K70">
+        <v>32.48299999999925</v>
+      </c>
+      <c r="L70">
+        <v>1966</v>
+      </c>
+      <c r="M70">
+        <v>-2.662000000000006</v>
+      </c>
+      <c r="N70">
+        <v>29.82099999999924</v>
+      </c>
+      <c r="O70">
+        <v>0.3906408952187182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>2020</v>
+      </c>
+      <c r="E71">
+        <v>2023</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>2.8</v>
+      </c>
+      <c r="H71">
+        <v>0.05</v>
+      </c>
+      <c r="I71">
+        <v>0.35</v>
+      </c>
+      <c r="J71">
+        <v>0.25</v>
+      </c>
+      <c r="K71">
+        <v>29.02999999999969</v>
+      </c>
+      <c r="L71">
+        <v>1547</v>
+      </c>
+      <c r="M71">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N71">
+        <v>28.15099999999968</v>
+      </c>
+      <c r="O71">
+        <v>0.5029088558500323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>2020</v>
+      </c>
+      <c r="E72">
+        <v>2023</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>3.3</v>
+      </c>
+      <c r="H72">
+        <v>0.05</v>
+      </c>
+      <c r="I72">
+        <v>0.4</v>
+      </c>
+      <c r="J72">
+        <v>0.25</v>
+      </c>
+      <c r="K72">
+        <v>28.29499999999977</v>
+      </c>
+      <c r="L72">
+        <v>1089</v>
+      </c>
+      <c r="M72">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N72">
+        <v>27.41599999999977</v>
+      </c>
+      <c r="O72">
+        <v>0.5087235996326905</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>2020</v>
+      </c>
+      <c r="E73">
+        <v>2023</v>
+      </c>
+      <c r="F73">
+        <v>80</v>
+      </c>
+      <c r="G73">
         <v>3.8</v>
       </c>
-      <c r="H18">
+      <c r="H73">
+        <v>0.05</v>
+      </c>
+      <c r="I73">
+        <v>0.1</v>
+      </c>
+      <c r="J73">
+        <v>0.35</v>
+      </c>
+      <c r="K73">
+        <v>27.51400000000011</v>
+      </c>
+      <c r="L73">
+        <v>889</v>
+      </c>
+      <c r="M73">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N73">
+        <v>26.6350000000001</v>
+      </c>
+      <c r="O73">
+        <v>0.5095613048368954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>2020</v>
+      </c>
+      <c r="E74">
+        <v>2023</v>
+      </c>
+      <c r="F74">
+        <v>80</v>
+      </c>
+      <c r="G74">
+        <v>3.9</v>
+      </c>
+      <c r="H74">
         <v>0.4</v>
       </c>
-      <c r="I18">
+      <c r="I74">
+        <v>0.2</v>
+      </c>
+      <c r="J74">
+        <v>0.35</v>
+      </c>
+      <c r="K74">
+        <v>30.02900000000035</v>
+      </c>
+      <c r="L74">
+        <v>854</v>
+      </c>
+      <c r="M74">
+        <v>-3.730000000000018</v>
+      </c>
+      <c r="N74">
+        <v>26.29900000000033</v>
+      </c>
+      <c r="O74">
+        <v>0.4016393442622951</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>2020</v>
+      </c>
+      <c r="E75">
+        <v>2023</v>
+      </c>
+      <c r="F75">
+        <v>90</v>
+      </c>
+      <c r="G75">
+        <v>2.7</v>
+      </c>
+      <c r="H75">
+        <v>0.05</v>
+      </c>
+      <c r="I75">
+        <v>0.05</v>
+      </c>
+      <c r="J75">
+        <v>0.2</v>
+      </c>
+      <c r="K75">
+        <v>26.98300000000037</v>
+      </c>
+      <c r="L75">
+        <v>1545</v>
+      </c>
+      <c r="M75">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N75">
+        <v>26.10400000000037</v>
+      </c>
+      <c r="O75">
+        <v>0.5087378640776699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1">
+        <v>33</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>2020</v>
+      </c>
+      <c r="E76">
+        <v>2023</v>
+      </c>
+      <c r="F76">
+        <v>80</v>
+      </c>
+      <c r="G76">
+        <v>1.4</v>
+      </c>
+      <c r="H76">
+        <v>0.25</v>
+      </c>
+      <c r="I76">
+        <v>0.35</v>
+      </c>
+      <c r="J76">
+        <v>0.05</v>
+      </c>
+      <c r="K76">
+        <v>28.12499999999999</v>
+      </c>
+      <c r="L76">
+        <v>3755</v>
+      </c>
+      <c r="M76">
+        <v>-2.439000000000021</v>
+      </c>
+      <c r="N76">
+        <v>25.68599999999996</v>
+      </c>
+      <c r="O76">
+        <v>0.4727030625832224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>2020</v>
+      </c>
+      <c r="E77">
+        <v>2023</v>
+      </c>
+      <c r="F77">
+        <v>90</v>
+      </c>
+      <c r="G77">
+        <v>0.7</v>
+      </c>
+      <c r="H77">
+        <v>0.4</v>
+      </c>
+      <c r="I77">
         <v>0.45</v>
       </c>
-      <c r="J18">
+      <c r="J77">
+        <v>0.1</v>
+      </c>
+      <c r="K77">
+        <v>28.29800000000046</v>
+      </c>
+      <c r="L77">
+        <v>7669</v>
+      </c>
+      <c r="M77">
+        <v>-2.673000000000002</v>
+      </c>
+      <c r="N77">
+        <v>25.62500000000045</v>
+      </c>
+      <c r="O77">
+        <v>0.4316077715477898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>2020</v>
+      </c>
+      <c r="E78">
+        <v>2023</v>
+      </c>
+      <c r="F78">
+        <v>80</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>0.2</v>
+      </c>
+      <c r="I78">
+        <v>0.15</v>
+      </c>
+      <c r="J78">
+        <v>0.15</v>
+      </c>
+      <c r="K78">
+        <v>27.31300000000006</v>
+      </c>
+      <c r="L78">
+        <v>2355</v>
+      </c>
+      <c r="M78">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N78">
+        <v>25.09100000000005</v>
+      </c>
+      <c r="O78">
+        <v>0.4152866242038217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>2020</v>
+      </c>
+      <c r="E79">
+        <v>2023</v>
+      </c>
+      <c r="F79">
+        <v>40</v>
+      </c>
+      <c r="G79">
+        <v>1.4</v>
+      </c>
+      <c r="H79">
+        <v>0.35</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.3</v>
+      </c>
+      <c r="K79">
+        <v>26.76800000000114</v>
+      </c>
+      <c r="L79">
+        <v>3771</v>
+      </c>
+      <c r="M79">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N79">
+        <v>24.54600000000113</v>
+      </c>
+      <c r="O79">
+        <v>0.3778838504375497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1">
+        <v>47</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>2020</v>
+      </c>
+      <c r="E80">
+        <v>2023</v>
+      </c>
+      <c r="F80">
+        <v>90</v>
+      </c>
+      <c r="G80">
+        <v>1.1</v>
+      </c>
+      <c r="H80">
+        <v>0.45</v>
+      </c>
+      <c r="I80">
+        <v>0.25</v>
+      </c>
+      <c r="J80">
         <v>0.05</v>
       </c>
-      <c r="K18">
+      <c r="K80">
+        <v>25.58699999999935</v>
+      </c>
+      <c r="L80">
+        <v>4931</v>
+      </c>
+      <c r="M80">
+        <v>-2.382000000000005</v>
+      </c>
+      <c r="N80">
+        <v>23.20499999999934</v>
+      </c>
+      <c r="O80">
+        <v>0.4802271344554857</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>2020</v>
+      </c>
+      <c r="E81">
+        <v>2023</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81">
+        <v>2.8</v>
+      </c>
+      <c r="H81">
+        <v>0.1</v>
+      </c>
+      <c r="I81">
+        <v>0.15</v>
+      </c>
+      <c r="J81">
+        <v>0.05</v>
+      </c>
+      <c r="K81">
+        <v>23.55300000000021</v>
+      </c>
+      <c r="L81">
+        <v>1435</v>
+      </c>
+      <c r="M81">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N81">
+        <v>22.67400000000021</v>
+      </c>
+      <c r="O81">
+        <v>0.5087108013937283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>2020</v>
+      </c>
+      <c r="E82">
+        <v>2023</v>
+      </c>
+      <c r="F82">
+        <v>80</v>
+      </c>
+      <c r="G82">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="H82">
+        <v>0.25</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.2</v>
+      </c>
+      <c r="K82">
+        <v>23.71499999999949</v>
+      </c>
+      <c r="L82">
+        <v>1214</v>
+      </c>
+      <c r="M82">
+        <v>-1.555000000000007</v>
+      </c>
+      <c r="N82">
+        <v>22.15999999999948</v>
+      </c>
+      <c r="O82">
+        <v>0.3953871499176277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>2020</v>
+      </c>
+      <c r="E83">
+        <v>2023</v>
+      </c>
+      <c r="F83">
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H83">
+        <v>0.15</v>
+      </c>
+      <c r="I83">
+        <v>0.15</v>
+      </c>
+      <c r="J83">
+        <v>0.15</v>
+      </c>
+      <c r="K83">
+        <v>23.00500000000004</v>
+      </c>
+      <c r="L83">
+        <v>969</v>
+      </c>
+      <c r="M83">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N83">
+        <v>22.12600000000003</v>
+      </c>
+      <c r="O83">
+        <v>0.4385964912280702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>2020</v>
+      </c>
+      <c r="E84">
+        <v>2023</v>
+      </c>
+      <c r="F84">
+        <v>40</v>
+      </c>
+      <c r="G84">
+        <v>2.3</v>
+      </c>
+      <c r="H84">
+        <v>0.05</v>
+      </c>
+      <c r="I84">
+        <v>0.2</v>
+      </c>
+      <c r="J84">
+        <v>0.05</v>
+      </c>
+      <c r="K84">
+        <v>21.81300000000003</v>
+      </c>
+      <c r="L84">
+        <v>1943</v>
+      </c>
+      <c r="M84">
+        <v>-1.555000000000007</v>
+      </c>
+      <c r="N84">
+        <v>20.25800000000002</v>
+      </c>
+      <c r="O84">
+        <v>0.5331960885229027</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>2020</v>
+      </c>
+      <c r="E85">
+        <v>2023</v>
+      </c>
+      <c r="F85">
+        <v>40</v>
+      </c>
+      <c r="G85">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H85">
+        <v>0.4</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.2</v>
+      </c>
+      <c r="K85">
+        <v>23.72000000000052</v>
+      </c>
+      <c r="L85">
+        <v>6094</v>
+      </c>
+      <c r="M85">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="N85">
+        <v>19.99300000000052</v>
+      </c>
+      <c r="O85">
+        <v>0.3813587134886774</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>2020</v>
+      </c>
+      <c r="E86">
+        <v>2023</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+      <c r="G86">
+        <v>1.8</v>
+      </c>
+      <c r="H86">
+        <v>0.45</v>
+      </c>
+      <c r="I86">
+        <v>0.35</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>22.38200000000133</v>
+      </c>
+      <c r="L86">
+        <v>2673</v>
+      </c>
+      <c r="M86">
+        <v>-2.964000000000027</v>
+      </c>
+      <c r="N86">
+        <v>19.4180000000013</v>
+      </c>
+      <c r="O86">
+        <v>0.3737373737373738</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>2020</v>
+      </c>
+      <c r="E87">
+        <v>2023</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H87">
+        <v>0.15</v>
+      </c>
+      <c r="I87">
+        <v>0.35</v>
+      </c>
+      <c r="J87">
+        <v>0.1</v>
+      </c>
+      <c r="K87">
+        <v>22.44600000000007</v>
+      </c>
+      <c r="L87">
+        <v>1699</v>
+      </c>
+      <c r="M87">
+        <v>-3.064999999999998</v>
+      </c>
+      <c r="N87">
+        <v>19.38100000000007</v>
+      </c>
+      <c r="O87">
+        <v>0.4502648616833431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>57</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>2020</v>
+      </c>
+      <c r="E88">
+        <v>2023</v>
+      </c>
+      <c r="F88">
+        <v>70</v>
+      </c>
+      <c r="G88">
+        <v>2.5</v>
+      </c>
+      <c r="H88">
+        <v>0.4</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.45</v>
+      </c>
+      <c r="K88">
+        <v>20.91099999999983</v>
+      </c>
+      <c r="L88">
+        <v>1707</v>
+      </c>
+      <c r="M88">
+        <v>-3.179000000000002</v>
+      </c>
+      <c r="N88">
+        <v>17.73199999999983</v>
+      </c>
+      <c r="O88">
+        <v>0.3725834797891037</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>2020</v>
+      </c>
+      <c r="E89">
+        <v>2023</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>3.7</v>
+      </c>
+      <c r="H89">
+        <v>0.1</v>
+      </c>
+      <c r="I89">
+        <v>0.35</v>
+      </c>
+      <c r="J89">
+        <v>0.05</v>
+      </c>
+      <c r="K89">
+        <v>18.26799999999984</v>
+      </c>
+      <c r="L89">
+        <v>1009</v>
+      </c>
+      <c r="M89">
+        <v>-1.615000000000009</v>
+      </c>
+      <c r="N89">
+        <v>16.65299999999984</v>
+      </c>
+      <c r="O89">
+        <v>0.4905847373637265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>2020</v>
+      </c>
+      <c r="E90">
+        <v>2023</v>
+      </c>
+      <c r="F90">
+        <v>40</v>
+      </c>
+      <c r="G90">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H90">
+        <v>0.5</v>
+      </c>
+      <c r="I90">
+        <v>0.3</v>
+      </c>
+      <c r="J90">
+        <v>0.15</v>
+      </c>
+      <c r="K90">
+        <v>17.6130000000003</v>
+      </c>
+      <c r="L90">
+        <v>6084</v>
+      </c>
+      <c r="M90">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="N90">
+        <v>13.88600000000029</v>
+      </c>
+      <c r="O90">
+        <v>0.4204470742932281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1">
+        <v>77</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>2020</v>
+      </c>
+      <c r="E91">
+        <v>2023</v>
+      </c>
+      <c r="F91">
+        <v>40</v>
+      </c>
+      <c r="G91">
+        <v>3.3</v>
+      </c>
+      <c r="H91">
+        <v>0.5</v>
+      </c>
+      <c r="I91">
+        <v>0.35</v>
+      </c>
+      <c r="J91">
+        <v>0.1</v>
+      </c>
+      <c r="K91">
+        <v>13.07499999999995</v>
+      </c>
+      <c r="L91">
+        <v>1120</v>
+      </c>
+      <c r="M91">
+        <v>-1.835000000000008</v>
+      </c>
+      <c r="N91">
+        <v>11.23999999999994</v>
+      </c>
+      <c r="O91">
+        <v>0.4517857142857143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>72</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>2020</v>
+      </c>
+      <c r="E92">
+        <v>2023</v>
+      </c>
+      <c r="F92">
+        <v>70</v>
+      </c>
+      <c r="G92">
+        <v>3.9</v>
+      </c>
+      <c r="H92">
+        <v>0.4</v>
+      </c>
+      <c r="I92">
+        <v>0.3</v>
+      </c>
+      <c r="J92">
+        <v>0.1</v>
+      </c>
+      <c r="K92">
+        <v>11.6540000000002</v>
+      </c>
+      <c r="L92">
+        <v>844</v>
+      </c>
+      <c r="M92">
+        <v>-1.835000000000008</v>
+      </c>
+      <c r="N92">
+        <v>9.819000000000187</v>
+      </c>
+      <c r="O92">
+        <v>0.4300947867298578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>2020</v>
+      </c>
+      <c r="E93">
+        <v>2023</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+      <c r="G93">
+        <v>2.4</v>
+      </c>
+      <c r="H93">
+        <v>0.45</v>
+      </c>
+      <c r="I93">
+        <v>0.2</v>
+      </c>
+      <c r="J93">
+        <v>0.15</v>
+      </c>
+      <c r="K93">
+        <v>11.98999999999938</v>
+      </c>
+      <c r="L93">
+        <v>1840</v>
+      </c>
+      <c r="M93">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N93">
+        <v>9.767999999999375</v>
+      </c>
+      <c r="O93">
+        <v>0.4260869565217391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94">
+        <v>2020</v>
+      </c>
+      <c r="E94">
+        <v>2023</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>0.45</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.05</v>
+      </c>
+      <c r="K94">
+        <v>10.14299999999957</v>
+      </c>
+      <c r="L94">
+        <v>2379</v>
+      </c>
+      <c r="M94">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N94">
+        <v>7.920999999999566</v>
+      </c>
+      <c r="O94">
+        <v>0.4737284573350147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>2020</v>
+      </c>
+      <c r="E95">
+        <v>2023</v>
+      </c>
+      <c r="F95">
+        <v>40</v>
+      </c>
+      <c r="G95">
+        <v>1.5</v>
+      </c>
+      <c r="H95">
+        <v>0.35</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.2</v>
+      </c>
+      <c r="K95">
+        <v>10.11500000000085</v>
+      </c>
+      <c r="L95">
+        <v>3435</v>
+      </c>
+      <c r="M95">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N95">
+        <v>7.893000000000839</v>
+      </c>
+      <c r="O95">
+        <v>0.3851528384279476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <v>2020</v>
+      </c>
+      <c r="E96">
+        <v>2023</v>
+      </c>
+      <c r="F96">
+        <v>90</v>
+      </c>
+      <c r="G96">
+        <v>3.9</v>
+      </c>
+      <c r="H96">
+        <v>0.5</v>
+      </c>
+      <c r="I96">
+        <v>0.25</v>
+      </c>
+      <c r="J96">
+        <v>0.05</v>
+      </c>
+      <c r="K96">
+        <v>9.833000000000041</v>
+      </c>
+      <c r="L96">
+        <v>861</v>
+      </c>
+      <c r="M96">
+        <v>-1.99199999999999</v>
+      </c>
+      <c r="N96">
+        <v>7.841000000000051</v>
+      </c>
+      <c r="O96">
+        <v>0.4901277584204414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97">
+        <v>2020</v>
+      </c>
+      <c r="E97">
+        <v>2023</v>
+      </c>
+      <c r="F97">
+        <v>50</v>
+      </c>
+      <c r="G97">
+        <v>3.8</v>
+      </c>
+      <c r="H97">
+        <v>0.4</v>
+      </c>
+      <c r="I97">
+        <v>0.45</v>
+      </c>
+      <c r="J97">
+        <v>0.05</v>
+      </c>
+      <c r="K97">
         <v>4.009000000000256</v>
       </c>
-      <c r="L18">
+      <c r="L97">
         <v>891</v>
       </c>
-      <c r="M18">
+      <c r="M97">
         <v>-1.835000000000008</v>
       </c>
-      <c r="N18">
+      <c r="N97">
         <v>2.174000000000248</v>
       </c>
-      <c r="O18">
+      <c r="O97">
         <v>0.4556677890011223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>79</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>2020</v>
+      </c>
+      <c r="E98">
+        <v>2023</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+      <c r="G98">
+        <v>2.8</v>
+      </c>
+      <c r="H98">
+        <v>0.5</v>
+      </c>
+      <c r="I98">
+        <v>0.1</v>
+      </c>
+      <c r="J98">
+        <v>0.15</v>
+      </c>
+      <c r="K98">
+        <v>1.139000000000379</v>
+      </c>
+      <c r="L98">
+        <v>1435</v>
+      </c>
+      <c r="M98">
+        <v>-2.677999999999997</v>
+      </c>
+      <c r="N98">
+        <v>-1.538999999999618</v>
+      </c>
+      <c r="O98">
+        <v>0.4160278745644599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1">
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99">
+        <v>2020</v>
+      </c>
+      <c r="E99">
+        <v>2023</v>
+      </c>
+      <c r="F99">
+        <v>60</v>
+      </c>
+      <c r="G99">
+        <v>1.6</v>
+      </c>
+      <c r="H99">
+        <v>0.5</v>
+      </c>
+      <c r="I99">
+        <v>0.35</v>
+      </c>
+      <c r="J99">
+        <v>0.15</v>
+      </c>
+      <c r="K99">
+        <v>-0.3539999999997576</v>
+      </c>
+      <c r="L99">
+        <v>3120</v>
+      </c>
+      <c r="M99">
+        <v>-2.222000000000008</v>
+      </c>
+      <c r="N99">
+        <v>-2.575999999999766</v>
+      </c>
+      <c r="O99">
+        <v>0.4217948717948718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1">
+        <v>53</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100">
+        <v>2020</v>
+      </c>
+      <c r="E100">
+        <v>2023</v>
+      </c>
+      <c r="F100">
+        <v>50</v>
+      </c>
+      <c r="G100">
+        <v>1.2</v>
+      </c>
+      <c r="H100">
+        <v>0.45</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.25</v>
+      </c>
+      <c r="K100">
+        <v>-1.158999999999409</v>
+      </c>
+      <c r="L100">
+        <v>4481</v>
+      </c>
+      <c r="M100">
+        <v>-3.841000000000008</v>
+      </c>
+      <c r="N100">
+        <v>-4.999999999999417</v>
+      </c>
+      <c r="O100">
+        <v>0.3769247935728632</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1">
+        <v>92</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>2020</v>
+      </c>
+      <c r="E101">
+        <v>2023</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <v>0.8</v>
+      </c>
+      <c r="H101">
+        <v>0.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.3</v>
+      </c>
+      <c r="K101">
+        <v>-21.64299999999993</v>
+      </c>
+      <c r="L101">
+        <v>6832</v>
+      </c>
+      <c r="M101">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="N101">
+        <v>-25.36999999999993</v>
+      </c>
+      <c r="O101">
+        <v>0.3729508196721312</v>
       </c>
     </row>
   </sheetData>
